--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/3_Afyonkarahisar_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/3_Afyonkarahisar_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D6EEA9-72DE-41F2-A3BB-0EFC492D9D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F81C4B-BEEE-475E-B552-B449D2B94567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{A5180B13-77A5-4388-9530-8DEDFA129D39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{02896AB0-EF1B-4EE4-A14D-A6387FA184D4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -948,15 +948,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3539B66F-3EF3-4649-9450-27BDE7FAC995}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1B15D694-4F6F-405B-B17C-512EEF83869F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{1DD042B7-F7CC-4A7A-902A-6D4DA8CF7B19}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{2917BBD5-4110-4A0F-ABB3-45EAB8EE912E}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{F58F9FA2-67DD-4C8B-A1DB-F8DAB33FACBF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{84025FF9-C50E-4DFD-B89C-24B90D48EBB7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{6FDB7004-EBCA-4AA2-AB80-68CF2DDFF20E}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{47A466E6-F903-410B-A1FA-372BF61E81C0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{CDEE0A08-36BF-4ED7-BD4E-31CBCF4D77D8}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3AE6F955-7EAB-49DC-8AEC-66F5CEE3D0AB}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BB641D98-7A2D-4F08-980A-8F7B407298EF}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E6AC1EAB-606B-406F-BC2A-71B83AD7BF25}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E304FECA-7C36-471D-BB33-87FAC632BB93}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{A775223C-A32E-4C1F-90DC-86748EE812A1}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{CF809777-6DCA-46FA-B133-E4B1A5EF32A7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{3222A874-E680-4B4C-96D1-87C7DB506896}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{8357AAE9-AD01-4696-98F5-12611D93D4D2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{34708A6F-FE9C-4F35-BDC4-DA5AA82EF1C2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE3F039-5C08-4564-9D44-C16150B3591B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B57E0D5-76AD-4540-A4A6-7997C5A24F3C}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2622,18 +2622,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89B28F7E-2E06-4491-B6AC-0040FA034114}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{82CCA774-C12D-495B-A2F6-82BCF74E88AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{573A536B-304F-457C-84E8-5038352E125D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{76205687-C8EC-4933-8F6E-31F5C3E953E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCD6BF6C-CC81-4FF8-AA58-5CEE93EC70E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{747980E4-A476-49C3-991E-EF1FAEA4041B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CA02A6F-F668-4903-958D-296445693B61}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE418C77-8D39-4749-B752-31F996CC7C2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0C30673-1000-4E4D-8FBE-5C5EF582FE4A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E09E0C86-D51A-4AA3-B5EB-BC78BFC9DFA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC8517EC-D3B2-45E3-963A-F2BE6A1995AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5ACF94AC-751A-4F30-A8C7-04ACBD9360D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFCA6B5E-D7C2-4C07-AC9E-6F9607E5302E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{60134E86-394B-48F6-B390-7868C17399B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92638CAB-E3B1-4FFF-8109-320120BE5C2F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7CEABDE0-5D3B-4200-B9E7-45503E75E53F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4F327C6-70D1-4E88-BFAC-8653339579CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E024D5F-969D-4CCA-8800-B05728417D35}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1379E9B7-F52B-4879-82B2-0134F11D544B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1723C8B-3F7E-4FCD-8771-596E4866CAB3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A29590F8-2C7B-49CF-AF41-9B5864A1B5C1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5D8F8DEF-E274-4E56-8F4D-8763572F276D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{212BA9F4-D0B3-403E-B2E3-92E80E0FFE0F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E102B036-52A8-4828-84A8-EABA80012393}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2646,7 +2646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680E69D1-98B8-4D95-A9BB-D2325F6F6350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4622E05-82A4-4514-A8D5-C6DE2C1924F6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3930,18 +3930,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E60542F-0040-4971-8959-2B1BFC06E50A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB3C06E2-F42E-4E4C-8081-B62435519A4F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3C339FD-E021-49EF-A510-E77BE7D337D9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D1E364B1-78DC-4AD2-9E99-CE4F15CB7AEB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D332D3D-9970-41CC-84F0-9A6788087CB9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3374FD60-9B2B-4E92-B57E-4D3A4503C494}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5843ADD1-CFF3-4D96-B1DE-F8A819D20932}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{832C859C-668E-4674-977C-0D14109E4C4B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDD7B8CA-952C-40D1-AD3B-8884B670B38D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{591E381C-08DB-42E6-B51A-D27227312147}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9979D0B-DD4F-4D94-8B91-4A7C1ABFE273}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7883A1AB-BF3B-402B-9A4D-613AE39DFE3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87E3C138-BE15-4141-AB17-D967819BDB19}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DCA7298F-3C9F-4CD2-9F77-6E3EDD99F6E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8E599F5-E13C-433C-B8C8-6561DD0F1384}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8CBACEDF-3CD1-49A6-8F53-37EEF75B09C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF45470D-F55C-4D5B-9AC6-4F814F88C5A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B1F39CB-4A1D-4413-94BA-67963EEFBFBB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65A6C5DB-3B18-472E-9ED6-B0E169CBE82E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E611202-3DA0-42AF-A29C-FD7E6FB8228B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EFC4B445-E85E-4C30-854E-05FED21DB973}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{99EA6761-58CC-4765-ADB9-E069BC811CBE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A240F1F-6835-44F3-A7B4-5CBAC5E01627}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49A8C9F2-6E23-45AE-90A3-F66962A00511}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3954,7 +3954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BE5CFB-1847-4154-87D0-8A57F7D581C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5953806-B09F-4540-9B59-631DFF555DD9}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5230,17 +5230,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4E2BB2B-4057-41A8-81DE-E0C7E83E5EAA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2B2D0D0-50C5-4E4D-B2A6-BB75400801E3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E470DEBD-BFAF-4A3F-A372-CDCDA5DF8913}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83D7C0A5-D6A0-4898-A086-A16E6250A58E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5DF0A0B5-1968-4698-954E-62973B5A4C54}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2FA26E37-46E7-47A2-A8AF-52BF99012061}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A88B48FC-1576-4151-8CD5-2EEE29671C13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88B94E84-E04C-490A-A255-B91152245F92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29CDA98D-57DE-4CF2-8B08-E100C92F83B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3AF5AE83-757B-49BB-BEDE-5CCCB049C465}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6231F3EB-C21B-4C69-87B8-E0B0ED7FC916}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E040B1AF-961D-48FF-B863-C9CAC596B76E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B45AE22D-F189-489B-8A4E-CD3991245BD3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A59A9149-F148-409C-9A52-BCACDB1613CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AAE9EDEE-5A32-489E-B648-4A164993145F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{043132DB-DCB8-407A-A588-F2BB6E316D5B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A802A98-0D27-4C7F-ADA7-6B4FDAD7D471}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCEFCC2F-417D-416B-831C-C4827853C36F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C413CAE-B012-4CBD-94EA-EC32F69A8804}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{249C07B5-B1A4-4365-936A-B3A37AFDBC32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB116D10-183A-427C-8556-F81250B99F86}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A6DA801-627F-4E19-8D93-1536BA07F928}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5253,7 +5253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3A8658-15D1-4C4C-AE6D-5A1D1DF064D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376BF6CB-384E-4E46-BFC7-E96AE5CD21D5}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6523,18 +6523,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38B6208D-4FA7-4C18-9EC0-680F32E77494}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25CA22EB-A732-478E-BA1E-37BEF2D29C1F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AEB466E7-67ED-4805-8EC8-BD2233ED5AE6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F15B0D4B-2A8D-4CAC-B605-1B4EE7E73815}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2082266A-4DF2-4B67-9B37-D0D6D620C780}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1406129F-6D28-445F-BC95-6C5700EA6F1F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40DCEB95-7665-4737-8BBD-9EFECC163639}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31A9CC4C-BAD6-42E3-B1C6-833AD10D0A32}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50696659-E1ED-45CE-AEBB-0DADA0BCE909}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{946CE01B-E4D2-422C-A9BC-9575D39A63C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8C80519-6827-430E-A212-8F52C31A4017}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A326314-1AB0-4BF2-A63A-3274797F9014}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D43152D9-0FEC-40AB-9C07-23552E8F32C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4601ECB2-E803-4C10-A021-81073D0DE76E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0D5723A-D548-44EF-99EA-3F2B954D6DBF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92F8B914-E248-4DC7-BADC-665DA8A31F1C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79B345A0-1F2E-49C8-8A4D-A8903BDF5923}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95D48D8E-E707-4C14-9404-E8A96C20409A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE51CE92-C24D-4EE4-920C-D9C5941F8421}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D87409F-9D28-4963-AAED-CF03E462D42A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{66CCCAAA-B5B0-49EE-890D-D5D9F9BD10CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{75ADA4F9-19E9-43EB-9206-3B84AE0A41AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{300886C2-1F2D-4E66-8FDA-539270B76180}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{498670D7-D2D6-46FE-8247-2D82A3B2CF62}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6547,7 +6547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D2C090-E8A3-45B3-AE59-A3FE77286499}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CFC693-7D3A-46F6-9C52-5EDC647B38EF}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7843,18 +7843,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{780F83AF-A2C2-403F-8EE0-9C263D5BD686}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{63B1A32E-C4E0-4F68-953C-805F66CE90C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9C7F027-1464-492C-9AA6-35CAA20B780E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B6480DCE-5A61-4F33-A9F5-AF6E67291137}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F21299C-6347-4D52-B0EE-25638655A8F2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8635783-61E7-45C4-BB17-0CA6D05A2333}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39AB833E-A5B1-4EFC-B59C-1464B7C464BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B258D91C-BBE8-4B5C-9791-DE1FCC64E05A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB6BFEE1-661F-4425-AEC4-33D01D2BD906}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1AEF4CCC-A42F-447F-8D14-71B36CD0F011}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C0720B1-0905-4ACC-AEE5-10D810EB9253}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{789585FC-EDC2-4BDA-AF4B-2BEDB1F14FEA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E52BF8EF-8734-4127-B2E0-E94A1B650BF9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{609B0950-479C-44D8-AE4D-2EA632B760D6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46085710-30A4-4D95-BDB8-9CD08443A233}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{500E08AB-0FED-48ED-8C1A-77506E77EB85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABCF44E5-E7EE-4A03-B3C5-01BB049B2D41}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AE0B0A5C-F42E-4309-B6B1-1C83F82B97BF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93258791-C424-4C14-A31C-FC1B9ADA138A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA60ADE0-8625-495A-AE5E-E53666C69F44}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E50102C-F23B-4125-9D9B-FE0D69161A53}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3945B444-31DA-4171-BAB6-E92FEFD7191D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9957FC45-989E-4282-B37E-8C24BAFE925B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5063BF52-4656-4B87-A57D-F90BD0C58976}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7867,7 +7867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE38766-4B4A-491C-BBB0-54594D87CFB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2742C627-4B98-4F22-92B7-F309009B045F}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9159,18 +9159,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E84678D4-F92B-4608-952D-4AF6730C82EB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F4E874B4-9122-42DB-81C6-3DE4EB672757}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AFCA2B03-546D-4FC8-991C-29CA0211232E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4CF0AA1E-A86D-47D3-879D-AA5382E3A553}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{961EEA30-7494-4D1A-BEF8-AFC2AA9C5F09}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A64CD66D-9FE2-4817-BE8C-EB654E1F0043}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5F5AAAF-703A-409E-ACEC-91B8607C5DC0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC66DF6A-D55C-476B-A44D-B18C2B6B9610}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B5B1C1B-1F71-417E-BF5E-F69A3F1C3792}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{45858A17-A4E6-4C54-9F49-528C4D4E5CC7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB07393F-FBBA-4D07-AF1E-C32C4318F5FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F96C82F9-A7EF-44EE-A681-FA8E47764489}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9060ABD6-7BAC-4FDD-B80A-2EF6A2992587}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2BD8F59-857E-4393-9061-23CA6E8AAD32}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F60E55D3-17B8-4156-9D7B-B10E6A7D6C22}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1E02FC59-FB7F-445B-8C1F-1B80AA5D6ADA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCD05E89-025E-4318-B731-7839A878FF27}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA6A7BCA-8714-4310-BF72-058B1D78FE4B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A5C8049-6C21-4AC3-A46A-B487F856632E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E50F4974-4FE7-421F-8761-CCA7DBD6CEE9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{584B09D3-05F0-4267-A248-89A43845D2CC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2558796-25F4-46B8-A0BF-4BC7D5190915}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3CC6DD54-0086-4A09-B3C9-70302A142F99}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0824A39D-04CB-40CF-BBB8-6F0397C4F9C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9183,7 +9183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5E787A-B550-4D0C-B460-65C634C4F3F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B719C4B0-BC17-41B7-9965-61BD34C839B3}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10475,18 +10475,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E89BA4AF-6E54-4507-A802-20DB3BE1923F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{963CAB26-D66D-4FEA-AB29-77327FED770F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63553785-3975-4F93-87B2-84C3A4CFE15C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{507D791E-1178-4E2C-BCC0-1E881E8486A6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2072842-D69F-4B3F-8400-AFEC29002A60}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF863744-0EA0-4454-8C15-30CAC2A5B4AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05E0F696-A560-4786-86CD-5BBB198043D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45B88C82-8695-4AB4-A8BB-3D03A62DC98B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A35E996C-F160-4AD7-9158-63E44877E610}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EAE0BB15-AC32-4B8F-9C2A-1F9E8569933C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{263BA612-1112-42B1-B720-4AF5EAE3C0F5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D10A034-89CA-41F3-B80B-F213676F627F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF224718-B53A-4EFA-A5B9-CC606A34C8FA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DFD85C96-1F66-4CEC-BBA8-DB3279BEE0CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5F5881E-653C-4863-8CB5-5F575AA240DE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7304EFB0-849E-44A7-9F3A-B2EAE36BC812}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9FB26ECF-9451-4AFF-A9BF-2FA6DD2CC8D6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F3603CAE-637C-47EA-8EF1-C7D8A1A44C7A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA250586-B81E-4A2F-978D-5A4304CFDA0B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E784652D-12A5-4667-AFFF-3D93FD3F8AFA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C39F6DF8-9D6B-4358-A4C7-E84CD874141B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7AAAAC03-787F-4C03-AA88-61B0A9D7CF27}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC785007-6BCA-4DAA-9A62-73D94B2E23B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEA4E8EA-C3A3-4619-980D-4803957538A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10499,7 +10499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA1A7CC-2DE8-49DD-819C-5E888F5D8F4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3E58F6-11B4-4C3E-95B1-3A3B2D511C8E}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11791,18 +11791,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F345F4C5-C375-41A8-88B8-E2ABAB6A8D49}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4C5384FD-F522-4986-9F54-BD12870CACB0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE132E33-FEF7-4260-A43A-F2F4F5FF0985}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A48999EE-25B0-4B55-B1EA-20D4840AFE8E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE968C0F-3883-464D-8C10-C13ADA3B7D57}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A2C199D-8FA8-45BF-A89B-9C6FDD16F44D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56857778-C030-4ADE-9B49-B3B95DAC67BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25142742-F4E0-4E17-9D78-48480B127BDF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9704A95-16BD-451B-BACF-972D0D45582B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1DFABC39-3463-4932-87EB-9A8644826A66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5A2B3E8-54EC-4D41-9372-BEAD14DC529D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06DB82EF-DE1B-4E91-9B71-D5AB3DF3C374}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{660085B3-D64F-45C8-B719-C1FCAB44B51F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F941FDD-8A84-401F-8096-D7EE0B666B72}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5669AF5F-8492-444B-A69B-D4F390B4B4E7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{91117C2E-1AFF-4B58-B911-A89D7352AF61}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DBD2B9D-C805-4769-94DC-06C198BD9B05}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F91BD232-4D36-414D-A47E-0E19FBA6821B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0319A04-A080-41DB-9D83-D88C92BA6E1F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAAE7DFE-D82A-4542-9C23-8AB542D57E3D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C687E1D6-B073-4324-BBAF-5CEA5AFED338}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB859352-A760-4221-9BE8-D602BAB0712C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B222D13-AB89-4070-9C74-4B87973BDE55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F52FBB40-E64F-4773-A5EF-F79D71041572}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11815,7 +11815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A10D22-686C-4BFA-9EEE-3A39CD411EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4BD015-E7ED-4614-A5C6-2AF26CC227B7}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13099,18 +13099,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B251870-294E-4D36-9B00-69728B49D6A5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9D5F97F-CB69-4477-94A0-64AE2D873B83}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F38264EF-7281-4D2A-A98E-59123EF23C0F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8A574FE4-8FF0-480B-A1A1-B10485C81A2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C96C0381-2AE2-4093-803A-7AE3EAAD3913}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0093714-1D99-4AD7-B696-A52249AA172F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8952B9A-F9B2-4B95-BC88-1DA49C6C89B5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4BDE019C-9E80-4EE6-A56C-3B48170E184A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1DD12C99-B8FD-4EBE-A8B0-01B141847EF3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7570A26C-EF7C-4F3C-BC1B-A28BFBC984F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4F8D267-8ABB-4962-8F90-1AF6111DBD08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{442733FA-9936-4263-88BD-CC6B0DF0E21B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3A25846-2C75-408A-8130-136CD66363D6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3127E271-2EB7-4F9D-9F9D-524D411B85D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F94BB49-866B-44F6-AFED-E054560A95E1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{57A79CDF-E757-4296-BACA-EFF7BC8FBD00}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D785EBE2-E9B2-4D03-BFFA-EC79A7EEE016}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8293E285-32C8-44ED-9202-A92C2DC618A3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E953E63-C1B4-47C7-943C-5C3916796BDE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCF139F5-855F-486D-B14E-9D3D35276F2F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{66E519AE-48DB-44D0-835D-4F0FFB14E12B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B246DC2-B914-4A6C-A79C-84A22078FF1B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B07131EF-6133-4854-8B35-3FEE3E46D819}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D5F3BEF0-CDA8-47B8-9050-3207F31E6756}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13123,7 +13123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C777916-C70E-446B-A7B5-8646BA6957B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D20A82-7F29-494C-B2E0-779563F30BA8}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14407,18 +14407,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{992083DA-5103-427D-BCF9-6CFDE28C3FA7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{729A7BCA-A0B7-4EE7-B7F6-C3B7BD7E5C60}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD716739-CAC2-4380-84D9-9935493C6526}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{85DEE7D4-A665-4428-81BD-5F54D6E7236D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F21B1EE2-6FF2-4C41-B9CB-6B3BDEFFE439}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F51DF1F-7FD8-4C4B-BC92-AB6D826A5A6A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2CF3EDD-A2B3-4832-9AF5-276319104ECC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{893B6C83-34DF-4496-9C86-6066D2DF56A3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC345018-47BD-431C-8BB3-A2125C04EBBD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EE13167F-FEF9-4D13-899E-2EC84F091E37}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57F6FA8A-7E14-46A3-AFEF-8BD79B0E77FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24D9A9A1-FF6B-4F47-B6C5-F06F13FDD230}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9748059-3B4B-453C-9600-2A0942912B35}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{49A313DB-A0CB-4E86-819C-3F77E9E6CEB4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD3F4555-CB55-4236-9952-DC9AC2BF63BF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F76E5EAB-D707-49DC-AFC2-94FEE67400FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8236B792-6BCE-4A89-B82F-068300CDBB1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F46FD3B2-86B8-4580-A776-D2A2B79B9FD0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5A55FC9-BD95-4453-B2BB-474F0D7B48AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACE9E187-1158-4236-B730-F3580413AD10}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0476EB27-755F-4E18-A261-F9FF4FDD1D2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B8BD8F02-97B4-46D2-96AE-D0FA9DB8F7F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{396129D6-A902-414F-B9BB-9A786E432739}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24C1ED01-4D55-4060-93A0-561786F88194}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14431,7 +14431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1790B9F5-F4F7-4B0B-93CF-F29E3B539A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E29AD9D-E879-460E-A3BD-AC1511803188}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15715,18 +15715,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20C69951-4886-45E0-9F18-1D4F2B244F5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{89AF746C-0DF4-4BB5-9A37-DE1F80ACE3D5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31FB5C3A-202D-4FF7-ADB2-FCEC957B392C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B2A80BB4-DD0B-431D-8D34-D180CB9F672E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{559D0E95-6446-4015-91A0-007865AC60D5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{86AAA93C-2580-4F17-A635-8C0D8257A029}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{590DBC32-241F-4A63-8C1A-44024046821C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6C68388-C7E1-419C-A5AB-E37C728CAFFF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7BBE2496-AA64-4C69-9D21-7FE1919D460A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7DE4768F-53DC-4813-9BC1-E1F8FDD6526A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83C32EB6-F222-430F-8D30-B6A8DA90DEC3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BD8FF6A-7C46-44FF-A603-1344F81E2442}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67740ABB-FE67-4C1E-A812-42532F39B7A0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A31C17C-D863-41FB-8F79-4D100830E98A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1B82145-1DBA-4380-ABE7-69BF98252A1A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2B1CB844-21A2-493D-B276-37D9B786ABBD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3CEFDB06-F82E-4F24-A7F9-7D4BA0B0E3FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82EE8E2C-08FB-433B-8681-7448B1BC96FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77B6BDA1-2EA8-48CA-875C-6EF730382B43}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF0AECCD-4848-42E9-87B5-FB5EEE67F201}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F467B03-EF18-4B19-807F-D0309CB662B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D885AB41-165D-401D-99AE-BE0472DF23B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1DE02C3-19A0-45DD-8332-A2ACB564B41F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6499CCB9-51C5-4C93-893F-30738A4DB372}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15739,7 +15739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C15675F-C774-43D3-897B-03E4EE4E8115}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0018854-BB2D-4C7F-A824-D07789BBA532}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -17023,18 +17023,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A787A8A5-A3DE-44F3-9708-9D2B19F9C090}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E60A64D-674C-406E-8ADC-B5180208573E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFD3FD5F-ACAC-4CB1-8B47-3AAA51F0441F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AC3C0B52-6323-4A3E-93AE-6A67E8225AB8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D25878D5-2324-465C-A436-46B8A378025B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63B4D429-8F50-4D70-829A-96D4D3D0733A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CD6CCA7-287D-44D6-9D61-DAC79F32EC0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8394EEFA-1666-4B73-9505-7830FC1AAC81}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5796B798-5428-4F03-8D37-BA83E7DEF35D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44B90959-B1B0-4209-A6A1-C4B0920836B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A569307-EF6B-4225-9A11-916CB81448B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54B1AA62-877E-4525-A1DE-844CF743637B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83425654-C3B2-4F16-A0DE-EFFE7A8DD6BF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D59A00A8-74A3-4187-91DE-C9594F60E97A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EC8947A-C8FC-4513-8FBD-6EA6B2DEB4DA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DC1EE9D8-EC4D-4A2A-9403-BE5BAA536A23}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2344456F-5CE5-4BE3-922E-45A018059C06}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C9DAB008-D429-478B-AF7E-7903BAA32BF1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A5A3052-EF0F-4F6B-AB9E-7FDAF034416B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B9E78B4-2A14-4310-BB00-4DC2D98267AA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91F6B35F-A7B0-4818-97B6-C1F06708C03E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{153303AA-E73C-4028-B64A-B920B88C9783}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E9F09D5-BFE9-46A9-9068-41B1B5EE5BD9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56CBDC19-8A1F-4BF3-B3D1-2B9A18321962}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
